--- a/01_需求文档/工作簿1.xlsx
+++ b/01_需求文档/工作簿1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\七一\Documents\hply\01_需求文档\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="10755" windowHeight="4905" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="10755" windowHeight="4905"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +26,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="B24" authorId="0">
+    <comment ref="B24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -968,34 +973,37 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1011,9 +1019,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1026,12 +1031,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1073,7 +1081,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1108,7 +1116,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1319,8 +1327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1351,11 +1359,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
       <c r="E1" s="1" t="s">
         <v>29</v>
       </c>
@@ -1381,67 +1389,67 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="15" t="s">
+      <c r="H3" s="18"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="K3" s="16"/>
-      <c r="L3" s="15" t="s">
+      <c r="K3" s="19"/>
+      <c r="L3" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="M3" s="16"/>
-      <c r="N3" s="15" t="s">
+      <c r="M3" s="19"/>
+      <c r="N3" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="O3" s="16"/>
-      <c r="P3" s="15" t="s">
+      <c r="O3" s="19"/>
+      <c r="P3" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="15" t="s">
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="15" t="s">
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="AA3" s="16"/>
+      <c r="AA3" s="19"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
       <c r="G4" s="11" t="s">
         <v>127</v>
       </c>
@@ -1600,11 +1608,11 @@
       <c r="AA7" s="2"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="24"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="22"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -1631,11 +1639,11 @@
       <c r="AA8" s="2"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="24"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -1662,23 +1670,17 @@
       <c r="AA9" s="2"/>
     </row>
     <row r="25" spans="2:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
     </row>
   </sheetData>
   <sortState ref="A12:B21">
     <sortCondition ref="A15"/>
   </sortState>
   <mergeCells count="17">
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -1690,6 +1692,12 @@
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="L3:M3"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1702,7 +1710,7 @@
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1722,10 +1730,10 @@
       <c r="A1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="26"/>
+      <c r="C1" s="27"/>
       <c r="D1" s="13" t="s">
         <v>44</v>
       </c>
@@ -1746,10 +1754,10 @@
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="25"/>
+      <c r="C2" s="26"/>
       <c r="D2" s="2" t="s">
         <v>53</v>
       </c>
@@ -1766,10 +1774,10 @@
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="25"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="4" t="s">
         <v>52</v>
       </c>
@@ -1788,10 +1796,10 @@
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="25"/>
+      <c r="C4" s="26"/>
       <c r="D4" s="4" t="s">
         <v>54</v>
       </c>
@@ -1810,10 +1818,10 @@
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="25"/>
+      <c r="C5" s="26"/>
       <c r="D5" s="4" t="s">
         <v>47</v>
       </c>
@@ -1832,10 +1840,10 @@
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="25"/>
+      <c r="C6" s="26"/>
       <c r="D6" s="4" t="s">
         <v>48</v>
       </c>
@@ -1850,10 +1858,10 @@
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="25"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="4" t="s">
         <v>49</v>
       </c>
@@ -1870,10 +1878,10 @@
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="25"/>
+      <c r="C8" s="26"/>
       <c r="D8" s="4" t="s">
         <v>47</v>
       </c>
@@ -1888,10 +1896,10 @@
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="25"/>
+      <c r="C9" s="26"/>
       <c r="D9" s="2" t="s">
         <v>53</v>
       </c>
@@ -1906,10 +1914,10 @@
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="25"/>
+      <c r="C10" s="26"/>
       <c r="D10" s="4" t="s">
         <v>50</v>
       </c>
@@ -1926,10 +1934,10 @@
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="25"/>
+      <c r="C11" s="26"/>
       <c r="D11" s="4" t="s">
         <v>55</v>
       </c>
@@ -1944,10 +1952,10 @@
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="25"/>
+      <c r="C12" s="26"/>
       <c r="D12" s="4" t="s">
         <v>47</v>
       </c>
@@ -1962,10 +1970,10 @@
       <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="25"/>
+      <c r="C13" s="26"/>
       <c r="D13" s="4" t="s">
         <v>47</v>
       </c>
@@ -1982,10 +1990,10 @@
       <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="25"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="4" t="s">
         <v>47</v>
       </c>
@@ -2000,7 +2008,7 @@
       <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="25" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="9" t="s">
@@ -2022,7 +2030,7 @@
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="30"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="4" t="s">
         <v>117</v>
       </c>
@@ -2042,7 +2050,7 @@
       <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="30"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="4" t="s">
         <v>118</v>
       </c>
@@ -2062,7 +2070,7 @@
       <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="25" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -2084,7 +2092,7 @@
       <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="30"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="4" t="s">
         <v>109</v>
       </c>
@@ -2104,7 +2112,7 @@
       <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="25" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -2128,7 +2136,7 @@
       <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="30"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="4" t="s">
         <v>111</v>
       </c>
@@ -2148,7 +2156,7 @@
       <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="25" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -2170,7 +2178,7 @@
       <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="30"/>
+      <c r="B23" s="25"/>
       <c r="C23" s="4" t="s">
         <v>113</v>
       </c>
@@ -2190,7 +2198,7 @@
       <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="25" t="s">
         <v>114</v>
       </c>
       <c r="C24" s="9" t="s">
@@ -2212,7 +2220,7 @@
       <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="B25" s="30"/>
+      <c r="B25" s="25"/>
       <c r="C25" s="4" t="s">
         <v>115</v>
       </c>
@@ -2234,7 +2242,7 @@
       <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="30"/>
+      <c r="B26" s="25"/>
       <c r="C26" s="4" t="s">
         <v>119</v>
       </c>
@@ -2254,7 +2262,7 @@
       <c r="A27" s="5">
         <v>26</v>
       </c>
-      <c r="B27" s="30"/>
+      <c r="B27" s="25"/>
       <c r="C27" s="4" t="s">
         <v>120</v>
       </c>
@@ -2274,7 +2282,7 @@
       <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="30"/>
+      <c r="B28" s="25"/>
       <c r="C28" s="4" t="s">
         <v>121</v>
       </c>
@@ -2294,7 +2302,7 @@
       <c r="A29" s="5">
         <v>28</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="25" t="s">
         <v>17</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -2314,7 +2322,7 @@
       <c r="A30" s="5">
         <v>29</v>
       </c>
-      <c r="B30" s="30"/>
+      <c r="B30" s="25"/>
       <c r="C30" s="4" t="s">
         <v>106</v>
       </c>
@@ -2334,7 +2342,7 @@
       <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="B31" s="30"/>
+      <c r="B31" s="25"/>
       <c r="C31" s="4" t="s">
         <v>123</v>
       </c>
@@ -2352,7 +2360,7 @@
       <c r="A32" s="5">
         <v>31</v>
       </c>
-      <c r="B32" s="30"/>
+      <c r="B32" s="25"/>
       <c r="C32" s="4" t="s">
         <v>124</v>
       </c>
@@ -2370,7 +2378,7 @@
       <c r="A33" s="5">
         <v>32</v>
       </c>
-      <c r="B33" s="30"/>
+      <c r="B33" s="25"/>
       <c r="C33" s="4" t="s">
         <v>21</v>
       </c>
@@ -2388,7 +2396,7 @@
       <c r="A34" s="5">
         <v>33</v>
       </c>
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="30" t="s">
         <v>103</v>
       </c>
       <c r="C34" s="9" t="s">
@@ -2404,7 +2412,7 @@
       <c r="A35" s="5">
         <v>34</v>
       </c>
-      <c r="B35" s="29"/>
+      <c r="B35" s="30"/>
       <c r="C35" s="9" t="s">
         <v>24</v>
       </c>
@@ -2418,7 +2426,7 @@
       <c r="A36" s="5">
         <v>35</v>
       </c>
-      <c r="B36" s="27" t="s">
+      <c r="B36" s="28" t="s">
         <v>60</v>
       </c>
       <c r="C36" s="6" t="s">
@@ -2438,7 +2446,7 @@
       <c r="A37" s="5">
         <v>36</v>
       </c>
-      <c r="B37" s="28"/>
+      <c r="B37" s="29"/>
       <c r="C37" s="6" t="s">
         <v>61</v>
       </c>
@@ -2489,12 +2497,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B28"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B36:B37"/>
@@ -2511,6 +2513,12 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2523,8 +2531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
